--- a/data/trans_dic/P16A12-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A12-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,15%</t>
         </is>
       </c>
     </row>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,0; 1,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>0,0; 1,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0,23; 1,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,27 +759,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,0; 1,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,0; 0,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,21; 1,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,0; 0,78</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,29%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,7; 2,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0,5; 2,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0,16; 1,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,06; 0,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>0,78; 2,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,16; 0,97</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,0; 2,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,15; 1,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,59; 2,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0,96; 3,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,32; 1,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,97; 2,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,43; 2,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,45; 1,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,8; 2,03</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,67; 1,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,72; 1,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,89; 2,2</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,84; 6,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,35; 5,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>3,82; 7,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,15; 8,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,98; 5,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,19; 5,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,97; 4,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>2,09; 4,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,81; 5,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,62; 4,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,3; 5,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>3,38; 5,49</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,62%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,61%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>9,28; 15,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>8,75; 15,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>9,82; 16,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>10,1; 15,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>7,54; 13,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>8,77; 15,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>8,97; 14,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,09; 8,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>8,94; 13,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>9,48; 13,79</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>10,0; 14,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>8,15; 11,06</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,87%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>16,37; 23,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>24,7; 33,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>26,54; 33,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>21,43; 26,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>17,51; 23,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>24,18; 30,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>21,32; 28,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>14,4; 23,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>18,07; 22,66</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>25,63; 30,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>24,26; 29,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>17,0; 24,07</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,01%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,83; 6,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,37; 8,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,44; 9,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,92; 9,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,24; 6,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,53; 9,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,92; 8,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>6,5; 8,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,3; 6,44</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,27; 8,57</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>7,46; 8,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>7,36; 8,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A12-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,83</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,78</t>
+          <t>0,0; 0,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 0,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,17</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,34</t>
+          <t>0,96; 3,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,85</t>
+          <t>0,45; 1,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,2</t>
+          <t>0,89; 2,19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,09</t>
+          <t>1,81; 7,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,1</t>
+          <t>2,01; 4,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,49</t>
+          <t>2,29; 5,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>9,77%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,1; 15,22</t>
+          <t>10,3; 15,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 8,12</t>
+          <t>5,12; 8,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,15; 11,06</t>
+          <t>8,29; 11,24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>20,94%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20,75%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>23,99%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>20,57%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>27,45%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>10,6%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>14,5%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,37; 23,15</t>
+          <t>15,63; 24,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,7; 33,07</t>
+          <t>23,44; 35,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,54; 33,65</t>
+          <t>22,24; 32,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,43; 26,68</t>
+          <t>17,58; 24,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,51; 23,42</t>
+          <t>16,82; 25,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,18; 30,97</t>
+          <t>19,59; 28,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,32; 28,2</t>
+          <t>17,75; 26,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,4; 23,68</t>
+          <t>3,89; 16,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,07; 22,66</t>
+          <t>17,22; 23,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>25,63; 30,77</t>
+          <t>22,96; 29,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>24,26; 29,41</t>
+          <t>21,29; 28,0</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,0; 24,07</t>
+          <t>6,48; 18,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>30,61%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>29,08%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>14,94; 25,57</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 35,02</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>28,08; 39,02</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>24,05; 32,58</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16,0; 25,39</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25,68; 35,77</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>21,64; 32,03</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>26,74; 32,88</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>16,92; 23,93</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>26,3; 33,97</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>25,43; 32,98</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>26,64; 31,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6,94%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>4,83; 6,4</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>6,37; 8,25</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>7,44; 9,24</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>7,92; 9,77</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 9,2</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>5,24; 6,85</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>7,53; 9,37</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>6,92; 8,9</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,5; 8,04</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 7,74</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>5,3; 6,44</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>7,27; 8,57</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>7,46; 8,73</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 8,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>6,56; 8,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P16A12-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A12-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +725,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,08</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,7 +750,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,89</t>
+          <t>0,23; 2,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,27 +760,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,61</t>
+          <t>0,0; 0,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,24</t>
+          <t>0,22; 1,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0,0; 0,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,79</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 0,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,87</t>
+          <t>0,71; 2,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,31</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,56</t>
+          <t>0,48; 2,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,33</t>
+          <t>0,16; 1,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,9</t>
+          <t>0,0; 0,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,9</t>
+          <t>0,07; 0,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,17</t>
+          <t>0,88; 2,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 0,97</t>
+          <t>0,16; 0,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,0; 1,16</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,97</t>
+          <t>0,9; 3,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,46</t>
+          <t>0,14; 1,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,63</t>
+          <t>0,61; 2,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,22</t>
+          <t>1,0; 3,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,81</t>
+          <t>0,32; 1,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,88</t>
+          <t>0,87; 2,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,03</t>
+          <t>0,55; 2,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,83</t>
+          <t>0,44; 1,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,03</t>
+          <t>0,78; 2,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,8</t>
+          <t>0,66; 1,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,83</t>
+          <t>0,72; 1,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,19</t>
+          <t>0,84; 2,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,74</t>
+          <t>2,86; 6,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,46</t>
+          <t>2,23; 5,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 7,69</t>
+          <t>3,95; 7,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,16</t>
+          <t>2,1; 7,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 5,2</t>
+          <t>1,96; 5,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,36</t>
+          <t>2,12; 5,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,81</t>
+          <t>1,99; 4,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,05</t>
+          <t>1,98; 3,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,21</t>
+          <t>2,7; 5,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 4,87</t>
+          <t>2,66; 4,81</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,74</t>
+          <t>3,3; 5,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 5,07</t>
+          <t>2,2; 4,96</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,28; 15,64</t>
+          <t>9,28; 15,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,75; 15,13</t>
+          <t>8,61; 14,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 16,22</t>
+          <t>9,87; 15,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,3; 15,52</t>
+          <t>10,31; 15,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 13,29</t>
+          <t>7,47; 13,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,77; 15,1</t>
+          <t>8,79; 15,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,97; 14,82</t>
+          <t>8,61; 14,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,17</t>
+          <t>5,15; 8,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,94; 13,35</t>
+          <t>9,13; 13,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 13,79</t>
+          <t>9,5; 13,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,0; 14,47</t>
+          <t>10,08; 14,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,29; 11,24</t>
+          <t>8,3; 11,54</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,63; 24,14</t>
+          <t>15,28; 24,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,44; 35,17</t>
+          <t>23,73; 34,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,24; 32,02</t>
+          <t>22,49; 32,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,58; 24,68</t>
+          <t>17,67; 24,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,82; 25,3</t>
+          <t>16,4; 25,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,59; 28,55</t>
+          <t>19,46; 28,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,75; 26,67</t>
+          <t>18,26; 26,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,89; 16,71</t>
+          <t>4,59; 16,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,22; 23,32</t>
+          <t>17,48; 23,28</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>22,96; 29,98</t>
+          <t>22,95; 30,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,29; 28,0</t>
+          <t>21,65; 27,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,48; 18,97</t>
+          <t>8,01; 19,09</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,94; 25,57</t>
+          <t>14,85; 25,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,15; 35,02</t>
+          <t>23,18; 35,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,08; 39,02</t>
+          <t>28,24; 38,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,05; 32,58</t>
+          <t>24,18; 32,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,0; 25,39</t>
+          <t>16,06; 25,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,68; 35,77</t>
+          <t>25,57; 34,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,64; 32,03</t>
+          <t>21,24; 31,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,74; 32,88</t>
+          <t>26,66; 32,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,92; 23,93</t>
+          <t>16,93; 24,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,3; 33,97</t>
+          <t>26,4; 33,89</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>25,43; 32,98</t>
+          <t>25,74; 32,93</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>26,64; 31,46</t>
+          <t>26,64; 31,75</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,4</t>
+          <t>4,85; 6,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,37; 8,25</t>
+          <t>6,41; 8,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,44; 9,24</t>
+          <t>7,46; 9,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,29; 9,2</t>
+          <t>6,44; 9,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,24; 6,85</t>
+          <t>5,26; 7,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,53; 9,37</t>
+          <t>7,59; 9,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,92; 8,9</t>
+          <t>6,94; 8,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,78; 7,74</t>
+          <t>5,55; 7,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,3; 6,44</t>
+          <t>5,24; 6,38</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,27; 8,57</t>
+          <t>7,21; 8,6</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,46; 8,73</t>
+          <t>7,46; 8,77</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,56; 8,21</t>
+          <t>6,61; 8,28</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3036</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4901</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1086</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4234</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6474</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4767</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4435</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1832</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>985; 9083</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1876</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5907</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5265</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1899; 10864</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4281</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6202</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1781</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10557</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2036</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7761</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2764</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3817</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18318</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4766</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2739</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7168</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4843; 20194</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 7028</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10882</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6405</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2927; 14532</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>879; 7271</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4166</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>892; 12401</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11396; 29844</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1820; 10769</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10803</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11327</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3904</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8790</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10267</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6169</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12124</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7479</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5181</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17496</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16028</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16268</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15448</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5764; 19112</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>920; 8989</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4063; 16284</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5338; 17625</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2212; 13332</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6120; 20155</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3616; 14098</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2409; 10195</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10389; 26829</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9208; 25243</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9520; 24854</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9050; 23078</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23222</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22462</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>35693</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>41226</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17178</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21507</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20647</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20030</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>43969</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>56340</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>61255</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14872; 35758</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>13690; 33505</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>25514; 49376</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18651; 64226</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10110; 26918</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13000; 31577</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12898; 31237</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>14080; 28391</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>27947; 53761</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>32637; 59148</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>42690; 74870</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>35144; 79317</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>46749</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>49708</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>60307</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>71811</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>40632</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>52216</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>57551</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36169</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>87382</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>101924</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>117857</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>107980</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>35874; 60956</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>36871; 64160</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>47149; 75962</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>57760; 86626</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>30172; 53699</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>39355; 67797</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>42774; 72636</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>28055; 45330</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>72218; 109746</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>83265; 120766</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>98262; 141620</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>91742; 127490</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>56993</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>89826</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>90456</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>77108</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>71156</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>84941</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>83517</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>64503</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>128148</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>174766</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>173973</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>141611</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>44698; 70865</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>73502; 107919</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>75200; 108754</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>65070; 88649</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>56230; 86371</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>68871; 100589</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>68996; 101629</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>27920; 101951</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>111097; 147966</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>152310; 200546</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>154198; 197681</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>78219; 186466</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>41978</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>71749</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>85628</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>79761</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>68044</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>118402</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>105985</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>125946</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>190150</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>191613</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>205706</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>31167; 53753</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>57735; 87966</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>72571; 98984</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>68381; 91802</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>53614; 83871</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>98880; 135017</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>84993; 125861</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>113251; 138811</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>92057; 130980</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>167835; 215459</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>169171; 216410</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>188488; 224599</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>927</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>183028</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>250071</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>283807</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>282108</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>205215</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>299986</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>277943</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>253717</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>388244</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>550056</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>561750</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>535825</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>158970; 209442</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>219446; 282832</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>253157; 316850</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>222751; 319679</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>177613; 237097</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>269319; 335355</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>246106; 313433</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>203062; 280081</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>349023; 424353</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>502682; 599412</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>517317; 608821</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>470477; 588927</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>